--- a/CapStatement/DEQM_Capability_Statement_Producer_Client.xlsx
+++ b/CapStatement/DEQM_Capability_Statement_Producer_Client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/CapStatement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9666046A-1D96-E74B-984B-CF4056221252}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724BBF90-831F-4D7F-923A-654CB9FE616A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>Value</t>
   </si>
@@ -66,9 +65,6 @@
     <t>mode</t>
   </si>
   <si>
-    <t>server</t>
-  </si>
-  <si>
     <t>documentation</t>
   </si>
   <si>
@@ -192,12 +188,6 @@
     <t>http://hl7.org/fhir/us/davinci-deqm/STU3/ImplementationGuide/ig</t>
   </si>
   <si>
-    <t>davinci-deqm-producer-server</t>
-  </si>
-  <si>
-    <t>This profile defines the expected capabilities of a Da Vinci DEQM Producer Server when conforming to the Da Vinci DEQM Implementation Guide. Producers include systems that are primary producers of patient healthcare information.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that are  Da Vinci DEQM Producer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
     <t>For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html).</t>
   </si>
   <si>
@@ -321,42 +311,49 @@
     <t>http://hl7.org/fhir/us/qicore/index.html</t>
   </si>
   <si>
-    <t>collect-data</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/OperationDefinition/collect-data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da Vinci DEQM Producer Server **SHALL**
+    <t>This profile defines the expected capabilities of a Da Vinci DEQM Producer Client when conforming to the Da Vinci DEQM Implementation Guide. Producers include systems that are primary producers of patient healthcare information.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that are  Da Vinci DEQM Producer Client could support. Clients have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Vinci DEQM Producer Client **SHALL**
 1. Support at least one transaction defined in the *Framework* Section of  this  Implementation Guide.
-1. Declare a CapabilityStatement identifying the list of supported profiles and operations.
-1. Implement the RESTful behavior according to the FHIR specification including returning the appropriate response classes as described in the FHIR specification for [FHIR RESTful API](http://hl7.org/fhir/STU3/http.html).
-1. Support both xml and json resource formats for all interactions.
 </t>
   </si>
   <si>
-    <t>Da Vinci DEQM Producer Server **SHALL** be capable of supporting the [FHR Subscrption API](http://hl7.org/fhir/STU3/subscription.html) providing notifications when measure data is available.</t>
-  </si>
-  <si>
-    <t>conf_Subscription</t>
+    <t>SHOULD</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/OperationDefinition/submit-data</t>
+  </si>
+  <si>
+    <t>data-requirements</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/OperationDefinition/data-requirements</t>
+  </si>
+  <si>
+    <t>conf_MeasureReport</t>
+  </si>
+  <si>
+    <t>conf_Library</t>
+  </si>
+  <si>
+    <t>submit-data</t>
+  </si>
+  <si>
+    <t>producer-client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -384,27 +381,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -414,12 +395,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -734,17 +711,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -752,52 +729,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="128" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -813,25 +790,25 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -843,212 +820,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.5" customWidth="1"/>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1062,62 +1039,66 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
   </sheetData>
@@ -1131,129 +1112,143 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8E795EC9-A372-B646-AB2C-DC254C6245BD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1269,74 +1264,74 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
     </row>
   </sheetData>

--- a/CapStatement/DEQM_Capability_Statement_Producer_Client.xlsx
+++ b/CapStatement/DEQM_Capability_Statement_Producer_Client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724BBF90-831F-4D7F-923A-654CB9FE616A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6286871B-ABBA-415E-A3E4-2162BE94729D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>Value</t>
   </si>
@@ -325,15 +325,9 @@
     <t>SHOULD</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/OperationDefinition/submit-data</t>
-  </si>
-  <si>
     <t>data-requirements</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/OperationDefinition/data-requirements</t>
-  </si>
-  <si>
     <t>conf_MeasureReport</t>
   </si>
   <si>
@@ -344,6 +338,15 @@
   </si>
   <si>
     <t>producer-client</t>
+  </si>
+  <si>
+    <t>The DaVinci DEQM Producer Client **SHOULD** be capable of supporting the DEQM MeasureReport Profiles and all the DEQM and QI Core Profiles they reference.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/OperationDefinition/Measure-submit-data</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/OperationDefinition/Measure-data-requirements</t>
   </si>
 </sst>
 </file>
@@ -711,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1039,7 +1042,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,14 +1086,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1114,8 +1119,8 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,10 +1146,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -1155,10 +1160,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -1194,10 +1199,10 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
